--- a/results/Countries-peak-emissions-change.xlsx
+++ b/results/Countries-peak-emissions-change.xlsx
@@ -72,7 +72,7 @@
     <t xml:space="preserve">Energy | Power</t>
   </si>
   <si>
-    <t xml:space="preserve">MtCO2e (GWP100 AR6)</t>
+    <t xml:space="preserve">MtCO2e (GWP100 AR5)</t>
   </si>
   <si>
     <t xml:space="preserve">Energy | Industry</t>
